--- a/biology/Botanique/Angelica/Angelica.xlsx
+++ b/biology/Botanique/Angelica/Angelica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Angelica (les angéliques) comprend environ 70 espèces de grandes plantes herbacées vivaces de la famille des Apiaceae. On le trouve dans l'hémisphère nord et en Nouvelle-Zélande.
 Les angéliques sont mellifères et certaines ont eu ou ont encore des usages médicinaux et alimentaires.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Angelica, provient du latin « angelus » (ange), faisant allusion à de prétendues propriétés surnaturelles de différentes parties de la plante ou à une liqueur produite à partir de l’espèce cultivée (Angélique officinale ou Angelica archangelica)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Angelica, provient du latin « angelus » (ange), faisant allusion à de prétendues propriétés surnaturelles de différentes parties de la plante ou à une liqueur produite à partir de l’espèce cultivée (Angélique officinale ou Angelica archangelica).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d’espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (21 juin 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (21 juin 2013) :
 Angelica aculeolata
 Angelica acutiloba
 Angelica adzharica
@@ -725,8 +741,43 @@
 Angelica wolffiana
 Angelica × mixta
 Angelica yakusimensis
-Flore de France
-Angelica archangelica L. - Angélique officinale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Angelica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Angelica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d’espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Flore de France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Angelica archangelica L. - Angélique officinale
 Angelica heterocarpa J.Lloyd - Angélique à fruits variables, angélique des estuaires
 Angelica razulii Gouan - Angélique de Razouls
 Angelica sylvestris L. - Angélique des bois
@@ -734,34 +785,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Angelica</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Angelica</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calendrier républicain
-L'angélique voyait son nom attribué au 4e jour du mois de prairial du calendrier républicain / révolutionnaire français[3], généralement chaque 23 mai du calendrier grégorien.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'angélique voyait son nom attribué au 4e jour du mois de prairial du calendrier républicain / révolutionnaire français, généralement chaque 23 mai du calendrier grégorien.
 </t>
         </is>
       </c>
